--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45289</v>
+        <v>45302</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -890,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A38:D38"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45302</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -890,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C33" s="21" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>954.2</v>
+        <v>1370</v>
       </c>
       <c r="E33" s="4" t="n"/>
       <c r="F33" s="16" t="n"/>
@@ -828,7 +828,7 @@
       </c>
       <c r="C34" s="21" t="n"/>
       <c r="D34" s="15" t="n">
-        <v>1200</v>
+        <v>1771</v>
       </c>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="16" t="n"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="C35" s="21" t="n"/>
       <c r="D35" s="15" t="n">
-        <v>1231.1</v>
+        <v>1980</v>
       </c>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="16" t="n"/>
@@ -864,7 +864,7 @@
       </c>
       <c r="C36" s="21" t="n"/>
       <c r="D36" s="15" t="n">
-        <v>1378</v>
+        <v>2210</v>
       </c>
       <c r="E36" s="4" t="n"/>
       <c r="F36" s="16" t="n"/>
@@ -890,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A38:D38"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C33" s="21" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>1370</v>
+        <v>954.2</v>
       </c>
       <c r="E33" s="4" t="n"/>
       <c r="F33" s="16" t="n"/>
@@ -828,7 +828,7 @@
       </c>
       <c r="C34" s="21" t="n"/>
       <c r="D34" s="15" t="n">
-        <v>1771</v>
+        <v>1200</v>
       </c>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="16" t="n"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="C35" s="21" t="n"/>
       <c r="D35" s="15" t="n">
-        <v>1980</v>
+        <v>1231.1</v>
       </c>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="16" t="n"/>
@@ -864,7 +864,7 @@
       </c>
       <c r="C36" s="21" t="n"/>
       <c r="D36" s="15" t="n">
-        <v>2210</v>
+        <v>1378</v>
       </c>
       <c r="E36" s="4" t="n"/>
       <c r="F36" s="16" t="n"/>
@@ -890,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -890,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A38:D38"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -890,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -890,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A38:D38"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
+++ b/server/LISTAS/mi/FRATACHO ALGARROBO.xlsx
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C33" s="21" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>954.2</v>
+        <v>1560</v>
       </c>
       <c r="E33" s="4" t="n"/>
       <c r="F33" s="16" t="n"/>
@@ -828,7 +828,7 @@
       </c>
       <c r="C34" s="21" t="n"/>
       <c r="D34" s="15" t="n">
-        <v>1200</v>
+        <v>2015</v>
       </c>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="16" t="n"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="C35" s="21" t="n"/>
       <c r="D35" s="15" t="n">
-        <v>1231.1</v>
+        <v>2249</v>
       </c>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="16" t="n"/>
@@ -864,7 +864,7 @@
       </c>
       <c r="C36" s="21" t="n"/>
       <c r="D36" s="15" t="n">
-        <v>1378</v>
+        <v>2516</v>
       </c>
       <c r="E36" s="4" t="n"/>
       <c r="F36" s="16" t="n"/>
@@ -890,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
